--- a/data/outputs/management/81.xlsx
+++ b/data/outputs/management/81.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ157"/>
+  <dimension ref="A1:BR157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,11 @@
       <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 68</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
         </is>
       </c>
     </row>
@@ -899,6 +904,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1090,6 +1096,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1285,6 +1292,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1492,6 +1500,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4183855</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1703,6 +1716,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4167933</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1902,6 +1920,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2097,6 +2116,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2300,6 +2320,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>4040408</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2499,6 +2524,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2698,6 +2724,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2901,6 +2928,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3112,6 +3140,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3315,6 +3344,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3514,6 +3544,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3729,6 +3760,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3936,6 +3968,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4341799</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4147,6 +4184,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>15740184</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4358,6 +4400,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4545,6 +4588,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4756,6 +4800,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4947,6 +4992,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5162,6 +5208,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5369,6 +5416,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4052447</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5576,6 +5628,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5783,6 +5836,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5986,6 +6040,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6205,6 +6260,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6424,6 +6480,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>6648159</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6627,6 +6688,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6826,6 +6888,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7025,6 +7088,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7232,6 +7296,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7439,6 +7504,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7646,6 +7712,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7861,6 +7928,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8048,6 +8116,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8243,6 +8312,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8450,6 +8520,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8657,6 +8728,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8864,6 +8936,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9063,6 +9136,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9274,6 +9348,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9477,6 +9552,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9688,6 +9764,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9899,6 +9976,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>48932780</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10098,6 +10180,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10297,6 +10380,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10500,6 +10584,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10707,6 +10792,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10922,6 +11008,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11129,6 +11216,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11344,6 +11432,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11535,6 +11624,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11738,6 +11828,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11941,6 +12032,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12148,6 +12240,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12367,6 +12460,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>19708193</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12578,6 +12676,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12785,6 +12884,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12996,6 +13096,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13203,6 +13304,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13406,6 +13508,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13609,6 +13712,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13812,6 +13916,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14023,6 +14128,11 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>4553619</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14234,6 +14344,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14445,6 +14556,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>4645494</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14656,6 +14772,11 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>6651218</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14863,6 +14984,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15070,6 +15192,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15285,6 +15408,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>3892825</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15492,6 +15620,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15695,6 +15824,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15898,6 +16028,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16101,6 +16232,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16316,6 +16448,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16527,6 +16660,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>3680351</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16730,6 +16868,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16929,6 +17068,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>6124943</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17132,6 +17276,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>4110412</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17351,6 +17500,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17554,6 +17704,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17765,6 +17916,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>3839931</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17976,6 +18132,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18187,6 +18344,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18402,6 +18560,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18609,6 +18768,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18816,6 +18976,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19007,6 +19168,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19230,6 +19392,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19449,6 +19612,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19660,6 +19824,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19863,6 +20028,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20066,6 +20232,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20257,6 +20424,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20456,6 +20624,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20659,6 +20828,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20874,6 +21044,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21073,6 +21244,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21272,6 +21444,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21479,6 +21652,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>4512424</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21686,6 +21864,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21885,6 +22064,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22096,6 +22276,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22295,6 +22476,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22502,6 +22684,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22713,6 +22896,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22928,6 +23112,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23135,6 +23320,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23342,6 +23528,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23549,6 +23736,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23760,6 +23948,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -23967,6 +24156,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24174,6 +24364,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24361,6 +24552,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24564,6 +24756,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24771,6 +24964,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -24970,6 +25164,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25169,6 +25364,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25376,6 +25572,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25583,6 +25780,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -25782,6 +25980,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -25981,6 +26180,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26200,6 +26400,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26399,6 +26600,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26602,6 +26804,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -26809,6 +27012,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27024,6 +27228,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27223,6 +27428,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27430,6 +27636,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27629,6 +27836,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -27836,6 +28044,11 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>3860715</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28035,6 +28248,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28238,6 +28452,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28453,6 +28668,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28660,6 +28876,11 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr">
+        <is>
+          <t>3749975</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -28867,6 +29088,11 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr">
+        <is>
+          <t>4512462</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29078,6 +29304,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29265,6 +29492,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29472,6 +29700,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>2850121</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -29671,6 +29904,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -29870,6 +30104,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30069,6 +30304,11 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr">
+        <is>
+          <t>4512640</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30276,6 +30516,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30479,6 +30720,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -30686,6 +30928,11 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr">
+        <is>
+          <t>3720656</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -30885,6 +31132,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31084,6 +31332,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31287,6 +31536,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31490,6 +31740,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -31689,6 +31940,11 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr">
+        <is>
+          <t>8464738</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -31892,6 +32148,11 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr">
+        <is>
+          <t>10987821</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32099,6 +32360,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32306,6 +32568,11 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr">
+        <is>
+          <t>51392562</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -32513,6 +32780,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -32716,6 +32984,11 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr">
+        <is>
+          <t>16687146</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
